--- a/datasets/labor_overall_haryana.xlsx
+++ b/datasets/labor_overall_haryana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0443E6BF-F34A-4811-B1FB-653EF7BF0F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD62AC-A3F7-43DA-BA4D-20DBBD3C909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,13 +147,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +474,7 @@
   <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
     <col min="11" max="16384" width="23.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -520,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,8 +554,14 @@
       <c r="J2" s="3">
         <v>316439.90925147495</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -583,8 +592,14 @@
       <c r="J3" s="3">
         <v>84223.565998337275</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -615,8 +630,14 @@
       <c r="J4" s="3">
         <v>415545.53048025363</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,8 +668,14 @@
       <c r="J5" s="3">
         <v>142369.54669898705</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -679,8 +706,14 @@
       <c r="J6" s="3">
         <v>59096.704107453144</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -711,8 +744,14 @@
       <c r="J7" s="3">
         <v>198538.40743865081</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,8 +782,14 @@
       <c r="J8" s="3">
         <v>476056.92177813075</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,8 +820,14 @@
       <c r="J9" s="3">
         <v>143004.08643805119</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -807,8 +858,14 @@
       <c r="J10" s="3">
         <v>626109.74171220104</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -839,8 +896,14 @@
       <c r="J11" s="3">
         <v>421061.36224140821</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -871,8 +934,14 @@
       <c r="J12" s="3">
         <v>39709.298165561522</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -903,8 +972,14 @@
       <c r="J13" s="3">
         <v>456833.66301460599</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="8"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -936,7 +1011,7 @@
         <v>175482.98709925835</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -968,7 +1043,7 @@
         <v>42420.092985671647</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
